--- a/ReporteSemanal/Barbados y Jamaica/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
+++ b/ReporteSemanal/Barbados y Jamaica/FORMATO - Cable and Wireless - Barbados & Jamaica REPORTE AYO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\ReporteSemanal\Barbados y Jamaica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3563B-116B-4DFB-BDBA-13128DCCF9DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945597C-183A-412D-825E-92BBED93BC65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,13 +801,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>8629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>467</c:v>
+                  <c:v>9067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,13 +866,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>40</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,13 +963,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>21</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>31</c:v>
+                        <c:v>8634</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>507</c:v>
+                        <c:v>9114</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1294,13 +1294,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6471</c:v>
+                  <c:v>2336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6138</c:v>
+                  <c:v>5989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27173</c:v>
+                  <c:v>13679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,10 +1362,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>43</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,13 +1456,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>6477</c:v>
+                        <c:v>2342</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6138</c:v>
+                        <c:v>5994</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>27216</c:v>
+                        <c:v>13713</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3211,25 +3211,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>3.7567084078711989E-2</v>
+        <v>2.2487069934787498E-3</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.47619047619047616</v>
+        <v>0.3</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>0.52380952380952384</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3238,25 +3238,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>31</v>
+        <v>8634</v>
       </c>
       <c r="D4" s="6">
-        <v>30</v>
+        <v>8629</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>5.5456171735241505E-2</v>
+        <v>0.48538340454238815</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>0.967741935483871</v>
+        <v>0.99942089413944868</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>3.2258064516129031E-2</v>
+        <v>5.7910586055130882E-4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3265,31 +3265,31 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5" si="0">D5+E5</f>
-        <v>507</v>
+        <v>9114</v>
       </c>
       <c r="D5" s="6">
-        <v>467</v>
+        <v>9067</v>
       </c>
       <c r="E5" s="6">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.90697674418604646</v>
+        <v>0.51236788846413317</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.92110453648915191</v>
+        <v>0.99484309852973452</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>7.8895463510848127E-2</v>
+        <v>5.1569014702655255E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>559</v>
+        <v>17788</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3307,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,25 +3350,25 @@
       </c>
       <c r="C3" s="2">
         <f>D3+E3</f>
-        <v>6477</v>
+        <v>2342</v>
       </c>
       <c r="D3" s="6">
-        <v>6471</v>
+        <v>2336</v>
       </c>
       <c r="E3" s="6">
         <v>6</v>
       </c>
       <c r="F3" s="3">
         <f>C3/C6</f>
-        <v>0.16261203585147246</v>
+        <v>0.10621796906889201</v>
       </c>
       <c r="G3" s="3">
         <f>D3/C3</f>
-        <v>0.99907364520611397</v>
+        <v>0.99743808710503845</v>
       </c>
       <c r="H3" s="3">
         <f>E3/C3</f>
-        <v>9.2635479388605835E-4</v>
+        <v>2.5619128949615714E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3377,25 +3377,25 @@
       </c>
       <c r="C4" s="2">
         <f>D4+E4</f>
-        <v>6138</v>
+        <v>5994</v>
       </c>
       <c r="D4" s="6">
-        <v>6138</v>
+        <v>5989</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
         <f>C4/C6</f>
-        <v>0.15410107705053852</v>
+        <v>0.27184906344958953</v>
       </c>
       <c r="G4" s="3">
         <f>D4/C4</f>
-        <v>1</v>
+        <v>0.9991658324991658</v>
       </c>
       <c r="H4" s="3">
         <f>E4/C4</f>
-        <v>0</v>
+        <v>8.3416750083416746E-4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3404,31 +3404,31 @@
       </c>
       <c r="C5" s="2">
         <f>D5+E5</f>
-        <v>27216</v>
+        <v>13713</v>
       </c>
       <c r="D5" s="6">
-        <v>27173</v>
+        <v>13679</v>
       </c>
       <c r="E5" s="6">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3">
         <f>C5/C6</f>
-        <v>0.68328688709798902</v>
+        <v>0.62193296748151838</v>
       </c>
       <c r="G5" s="3">
         <f>D5/C5</f>
-        <v>0.99842004703115816</v>
+        <v>0.99752060088966676</v>
       </c>
       <c r="H5" s="3">
         <f>E5/C5</f>
-        <v>1.5799529688418578E-3</v>
+        <v>2.4793991103332605E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>39831</v>
+        <v>22049</v>
       </c>
     </row>
   </sheetData>
